--- a/scraper/top_remaining_spreadsheets_states/top_remaining_AR.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_AR.xlsx
@@ -44,7 +44,7 @@
     <t>3 Times Lucky</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Cash on the Spot</t>
@@ -56,21 +56,21 @@
     <t>Wild 10's</t>
   </si>
   <si>
+    <t>BETTY BOOP™</t>
+  </si>
+  <si>
+    <t>Hit $100!</t>
+  </si>
+  <si>
+    <t>Super 7's</t>
+  </si>
+  <si>
     <t>10X Payout</t>
   </si>
   <si>
-    <t>Hit $100!</t>
-  </si>
-  <si>
-    <t>BETTY BOOP™</t>
-  </si>
-  <si>
     <t>Cash $100's</t>
   </si>
   <si>
-    <t>Super 7's</t>
-  </si>
-  <si>
     <t>Fast $100</t>
   </si>
   <si>
@@ -104,12 +104,12 @@
     <t>Lady Jumbo Bucks</t>
   </si>
   <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
     <t>20X The Money</t>
   </si>
   <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
     <t>$20,000 Money Bag</t>
   </si>
   <si>
@@ -173,21 +173,21 @@
     <t>25X</t>
   </si>
   <si>
+    <t>50X Payout</t>
+  </si>
+  <si>
     <t>Cash Multiplier</t>
   </si>
   <si>
     <t>Stacks of Cash</t>
   </si>
   <si>
-    <t>50X Payout</t>
+    <t>$100,000 Triple Win</t>
   </si>
   <si>
     <t>Hit $500!</t>
   </si>
   <si>
-    <t>$100,000 Triple Win</t>
-  </si>
-  <si>
     <t>Win $500!</t>
   </si>
   <si>
@@ -206,30 +206,30 @@
     <t>Bonus Payout</t>
   </si>
   <si>
+    <t>$250,000 Riches</t>
+  </si>
+  <si>
     <t>$200,000 Jackpot</t>
   </si>
   <si>
-    <t>$250,000 Riches</t>
-  </si>
-  <si>
     <t>Gigantic Jumbo Bucks</t>
   </si>
   <si>
+    <t>$200,000 Bonus</t>
+  </si>
+  <si>
     <t>Big Multiplier</t>
   </si>
   <si>
-    <t>$200,000 Bonus</t>
-  </si>
-  <si>
     <t>$200,000 Cash Vault HD</t>
   </si>
   <si>
+    <t>100X Payout</t>
+  </si>
+  <si>
     <t>Cash $1000's</t>
   </si>
   <si>
-    <t>100X Payout</t>
-  </si>
-  <si>
     <t>Hit $5,000!</t>
   </si>
   <si>
@@ -260,10 +260,10 @@
     <t>Ultimate Millions</t>
   </si>
   <si>
+    <t>$50K Blowout</t>
+  </si>
+  <si>
     <t>200X Payout</t>
-  </si>
-  <si>
-    <t>$50K Blowout</t>
   </si>
 </sst>
 </file>
@@ -721,10 +721,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -744,7 +744,7 @@
         <v>481</v>
       </c>
       <c r="E7">
-        <v>2046</v>
+        <v>1972</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -761,10 +761,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -781,10 +781,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="E9">
-        <v>813</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -801,10 +801,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>813</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -824,7 +824,7 @@
         <v>453</v>
       </c>
       <c r="E11">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1021,10 +1021,10 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1041,10 +1041,10 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1124,7 +1124,7 @@
         <v>482</v>
       </c>
       <c r="E26">
-        <v>1308</v>
+        <v>1251</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         <v>454</v>
       </c>
       <c r="E28">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1441,10 +1441,10 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1461,10 +1461,10 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1481,10 +1481,10 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1501,10 +1501,10 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E45">
-        <v>1911</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1521,10 +1521,10 @@
         <v>56</v>
       </c>
       <c r="D46">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>1781</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1641,7 +1641,7 @@
         <v>63</v>
       </c>
       <c r="D52">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>64</v>
       </c>
       <c r="D53">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1701,10 +1701,10 @@
         <v>66</v>
       </c>
       <c r="D55">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1721,10 +1721,10 @@
         <v>67</v>
       </c>
       <c r="D56">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1761,10 +1761,10 @@
         <v>69</v>
       </c>
       <c r="D58">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="E58">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1781,10 +1781,10 @@
         <v>70</v>
       </c>
       <c r="D59">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         <v>484</v>
       </c>
       <c r="E60">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1844,7 +1844,7 @@
         <v>479</v>
       </c>
       <c r="E62">
-        <v>935</v>
+        <v>819</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1981,10 +1981,10 @@
         <v>81</v>
       </c>
       <c r="D69">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2001,10 +2001,10 @@
         <v>82</v>
       </c>
       <c r="D70">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="E70">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_AR.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_AR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>3 Times Lucky</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>Cash on the Spot</t>
@@ -56,30 +56,27 @@
     <t>Wild 10's</t>
   </si>
   <si>
+    <t>10X Payout</t>
+  </si>
+  <si>
+    <t>Cash Time</t>
+  </si>
+  <si>
+    <t>Super 7's</t>
+  </si>
+  <si>
     <t>BETTY BOOP™</t>
   </si>
   <si>
     <t>Hit $100!</t>
   </si>
   <si>
-    <t>Super 7's</t>
-  </si>
-  <si>
-    <t>10X Payout</t>
-  </si>
-  <si>
-    <t>Cash $100's</t>
-  </si>
-  <si>
     <t>Fast $100</t>
   </si>
   <si>
     <t>Blackjack</t>
   </si>
   <si>
-    <t>$5,000 Jackpot</t>
-  </si>
-  <si>
     <t>Blazing 777®</t>
   </si>
   <si>
@@ -98,36 +95,33 @@
     <t>$20,000 Jackpot</t>
   </si>
   <si>
+    <t>$20,000 Money Bag</t>
+  </si>
+  <si>
+    <t>20X The Money</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
     <t>Double Deuces</t>
   </si>
   <si>
-    <t>Lady Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>20X The Money</t>
-  </si>
-  <si>
-    <t>$20,000 Money Bag</t>
+    <t>Triple 777</t>
+  </si>
+  <si>
+    <t>20X Payout</t>
+  </si>
+  <si>
+    <t>Hit $200!</t>
+  </si>
+  <si>
+    <t>Fast $200</t>
   </si>
   <si>
     <t>15X</t>
   </si>
   <si>
-    <t>20X Payout</t>
-  </si>
-  <si>
-    <t>Hit $200!</t>
-  </si>
-  <si>
-    <t>Cash $200's</t>
-  </si>
-  <si>
-    <t>Fast $200</t>
-  </si>
-  <si>
     <t>Super 777</t>
   </si>
   <si>
@@ -140,21 +134,24 @@
     <t>Match 7's</t>
   </si>
   <si>
+    <t>BATTLESHIP™</t>
+  </si>
+  <si>
     <t>Bingo Bonus</t>
   </si>
   <si>
-    <t>BATTLESHIP™</t>
+    <t>10X Bonus! Crossword</t>
+  </si>
+  <si>
+    <t>Win 10X</t>
+  </si>
+  <si>
+    <t>Word Games</t>
   </si>
   <si>
     <t>Bingo Extra</t>
   </si>
   <si>
-    <t>10X Bonus! Crossword</t>
-  </si>
-  <si>
-    <t>Word Games</t>
-  </si>
-  <si>
     <t>Cash 10X</t>
   </si>
   <si>
@@ -176,18 +173,21 @@
     <t>50X Payout</t>
   </si>
   <si>
+    <t>Stacks of Cash</t>
+  </si>
+  <si>
+    <t>$100,000 Triple Win</t>
+  </si>
+  <si>
+    <t>Hit $500!</t>
+  </si>
+  <si>
+    <t>Double-Sided Dollars</t>
+  </si>
+  <si>
     <t>Cash Multiplier</t>
   </si>
   <si>
-    <t>Stacks of Cash</t>
-  </si>
-  <si>
-    <t>$100,000 Triple Win</t>
-  </si>
-  <si>
-    <t>Hit $500!</t>
-  </si>
-  <si>
     <t>Win $500!</t>
   </si>
   <si>
@@ -197,73 +197,64 @@
     <t>Platinum Doubler</t>
   </si>
   <si>
-    <t>Bonus 7</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
-    <t>Bonus Payout</t>
+    <t>$200,000 Jackpot</t>
+  </si>
+  <si>
+    <t>Gigantic Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>$200,000 Bonus</t>
+  </si>
+  <si>
+    <t>Big Multiplier</t>
+  </si>
+  <si>
+    <t>$200,000 Cash Vault HD</t>
+  </si>
+  <si>
+    <t>Hit $5,000!</t>
+  </si>
+  <si>
+    <t>$10,000 Loaded</t>
+  </si>
+  <si>
+    <t>100X Payout</t>
+  </si>
+  <si>
+    <t>BIG WIN</t>
+  </si>
+  <si>
+    <t>$50 or $100!</t>
   </si>
   <si>
     <t>$250,000 Riches</t>
   </si>
   <si>
-    <t>$200,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Gigantic Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>$200,000 Bonus</t>
-  </si>
-  <si>
-    <t>Big Multiplier</t>
-  </si>
-  <si>
-    <t>$200,000 Cash Vault HD</t>
-  </si>
-  <si>
-    <t>100X Payout</t>
-  </si>
-  <si>
-    <t>Cash $1000's</t>
-  </si>
-  <si>
-    <t>Hit $5,000!</t>
-  </si>
-  <si>
-    <t>$10,000 Loaded</t>
-  </si>
-  <si>
-    <t>$50 or $100!</t>
-  </si>
-  <si>
     <t>Emerald 10's</t>
   </si>
   <si>
     <t>Willy Wonka Golden Ticket™</t>
   </si>
   <si>
-    <t>100X The Money</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
     <t>Million Dollar Winner</t>
   </si>
   <si>
+    <t>Ultimate Millions</t>
+  </si>
+  <si>
+    <t>200X Payout</t>
+  </si>
+  <si>
+    <t>$50K Blowout</t>
+  </si>
+  <si>
     <t>200X The Money</t>
-  </si>
-  <si>
-    <t>Ultimate Millions</t>
-  </si>
-  <si>
-    <t>$50K Blowout</t>
-  </si>
-  <si>
-    <t>200X Payout</t>
   </si>
 </sst>
 </file>
@@ -602,7 +593,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -741,10 +732,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E7">
-        <v>1972</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -781,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -801,10 +792,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="E10">
-        <v>813</v>
+        <v>1623</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -824,7 +815,7 @@
         <v>453</v>
       </c>
       <c r="E11">
-        <v>767</v>
+        <v>690</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -861,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -881,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -895,16 +886,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -915,16 +906,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -935,13 +926,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -955,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -975,16 +966,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -995,13 +986,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1015,16 +1006,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1035,16 +1026,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1055,16 +1046,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1075,16 +1066,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>950</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1095,16 +1086,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>870</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1115,16 +1106,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="E26">
-        <v>1251</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1135,16 +1126,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="E27">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1155,16 +1146,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E28">
-        <v>936</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1175,16 +1166,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1195,16 +1186,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1215,13 +1206,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1235,16 +1226,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1255,16 +1246,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
       </c>
       <c r="D33">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1275,16 +1266,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
       <c r="D34">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1295,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1315,16 +1306,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1335,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1355,13 +1346,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1375,16 +1366,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1395,16 +1386,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1415,16 +1406,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1435,16 +1426,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1455,16 +1446,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1475,16 +1466,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>1138</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1495,16 +1486,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1515,16 +1506,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E46">
-        <v>1781</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1535,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
@@ -1544,7 +1535,7 @@
         <v>451</v>
       </c>
       <c r="E47">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1555,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
@@ -1575,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
@@ -1595,16 +1586,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1615,13 +1606,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="D51">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1635,16 +1626,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1655,16 +1646,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1675,13 +1666,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1695,16 +1686,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="D55">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1715,16 +1706,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
       <c r="D56">
-        <v>470</v>
+        <v>393</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1735,16 +1726,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="D57">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1755,16 +1746,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
       </c>
       <c r="D58">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1775,16 +1766,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
       <c r="D59">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="E59">
-        <v>61</v>
+        <v>440</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1795,16 +1786,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="D60">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E60">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1815,16 +1806,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1835,16 +1826,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E62">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1855,16 +1846,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1875,16 +1866,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1895,16 +1886,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1915,16 +1906,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1935,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
@@ -1944,69 +1935,9 @@
         <v>438</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68">
-        <v>480</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69">
-        <v>461</v>
-      </c>
-      <c r="E69">
-        <v>29</v>
-      </c>
-      <c r="F69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70">
-        <v>494</v>
-      </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
         <v>9</v>
       </c>
     </row>
